--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3880007.258077628</v>
+        <v>3874267.143369413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>166.172897405058</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>283.3972226855414</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>72.5047714517433</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4973484024763</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>112.5835468933117</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>59.2443341810084</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>66.16047425173213</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.297272636175798</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>248.3179970212608</v>
+        <v>75.13651949521427</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>238.4419995287271</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>29.66898836237942</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4515542885777</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>216.2238178556323</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1340411809968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>32.83323659136529</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.16166197080739</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192027</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.81983805149548</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>111.9630737486289</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>165.3593846817533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>264.3734181810911</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>118.7312710490954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.1837596300281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.91797013962</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.0442806932009</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>20.22445821548517</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.93805507567765</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>79.54367350501126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4155,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>48.00679786410392</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.9176400685913</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.36570289696</v>
+        <v>744.5547518977935</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.36570289696</v>
+        <v>744.5547518977935</v>
       </c>
       <c r="D2" t="n">
-        <v>1349.36570289696</v>
+        <v>744.5547518977935</v>
       </c>
       <c r="E2" t="n">
-        <v>963.577450298716</v>
+        <v>744.5547518977935</v>
       </c>
       <c r="F2" t="n">
-        <v>795.7260387784554</v>
+        <v>333.5688471081859</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4723621567761</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015914</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060707</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927198</v>
+        <v>769.5640925927189</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222162</v>
+        <v>2292.214167804439</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222162</v>
+        <v>2072.310601330787</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.431301222162</v>
+        <v>1818.52562648729</v>
       </c>
       <c r="V2" t="n">
-        <v>2109.431301222162</v>
+        <v>1487.462739143719</v>
       </c>
       <c r="W2" t="n">
-        <v>2109.431301222162</v>
+        <v>1134.694083873605</v>
       </c>
       <c r="X2" t="n">
-        <v>1735.965542961082</v>
+        <v>1134.694083873605</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.965542961082</v>
+        <v>744.5547518977935</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683.0848112127511</v>
+        <v>643.6546745992221</v>
       </c>
       <c r="C3" t="n">
-        <v>508.6317819316241</v>
+        <v>469.2016453180951</v>
       </c>
       <c r="D3" t="n">
-        <v>359.6973722703728</v>
+        <v>320.2672356568438</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>161.0297806513883</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>161.0297806513883</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J3" t="n">
-        <v>47.3090262136998</v>
+        <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592118</v>
+        <v>338.9063907138126</v>
       </c>
       <c r="L3" t="n">
-        <v>501.770269185293</v>
+        <v>710.5174612568451</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874819</v>
+        <v>1196.149274459034</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1710.341330101582</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>1905.5637351199</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695911</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926783</v>
+        <v>2144.55478592678</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087514</v>
+        <v>1945.051103087511</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549724</v>
+        <v>1716.871275549721</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317981</v>
+        <v>1481.719167317978</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.48181058978</v>
+        <v>1227.481810589777</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384247</v>
+        <v>1019.630310384244</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192929</v>
+        <v>811.8700116192902</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1854.080932729589</v>
+        <v>433.1906104243789</v>
       </c>
       <c r="C4" t="n">
-        <v>1854.080932729589</v>
+        <v>264.254427496472</v>
       </c>
       <c r="D4" t="n">
-        <v>1854.080932729589</v>
+        <v>114.1377880841362</v>
       </c>
       <c r="E4" t="n">
-        <v>1854.080932729589</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="F4" t="n">
-        <v>1854.080932729589</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="G4" t="n">
-        <v>1854.080932729589</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="H4" t="n">
-        <v>1852.770556329412</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="I4" t="n">
-        <v>1852.770556329412</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="J4" t="n">
-        <v>1797.921261644071</v>
+        <v>47.30902621369975</v>
       </c>
       <c r="K4" t="n">
-        <v>1839.417529532187</v>
+        <v>88.80529410181586</v>
       </c>
       <c r="L4" t="n">
-        <v>1948.044900366937</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>2072.966355325431</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>2200.352073720045</v>
+        <v>449.7398382896739</v>
       </c>
       <c r="O4" t="n">
-        <v>2301.997107118964</v>
+        <v>551.3848716885926</v>
       </c>
       <c r="P4" t="n">
-        <v>2365.45131068499</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Q4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="R4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="S4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="T4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="U4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="V4" t="n">
-        <v>2325.14656759679</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="W4" t="n">
-        <v>2035.729397559829</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="X4" t="n">
-        <v>2035.729397559829</v>
+        <v>614.8390752546186</v>
       </c>
       <c r="Y4" t="n">
-        <v>2035.729397559829</v>
+        <v>614.8390752546186</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1645.450628940881</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.450628940881</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.184930334131</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1645.450628940881</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>487.2784796319623</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>487.2784796319623</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>487.2784796319623</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>487.2784796319623</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W7" t="n">
-        <v>487.2784796319623</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X7" t="n">
-        <v>487.2784796319623</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>487.2784796319623</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.180415904708</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="W8" t="n">
-        <v>2267.209817970484</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.480975254749</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>509.7210873825632</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.6730165490254</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C13" t="n">
-        <v>199.7368336211185</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208126</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X13" t="n">
-        <v>771.1140605227953</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.3214813792652</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.2139837551626</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>379.616769834034</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1034.340101969334</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4345.626553396685</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>999.1036114208126</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>771.1140605227953</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>704.2840989361212</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5503,49 +5503,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>975.9286436089831</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518749</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906986</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5591,7 +5591,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,31 +5758,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159225</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607721</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.09595020727</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913135</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833548</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267207</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419722</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419722</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246548</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4380.904410752404</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4091.801543878048</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>3837.117055672161</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>3547.6998856352</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>3319.710334737183</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>3098.917755593653</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,19 +5992,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>839.4243482536216</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>670.4881653257147</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6180,19 +6180,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.788099626699</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W25" t="n">
-        <v>964.3709295897388</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X25" t="n">
-        <v>964.3709295897388</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.5783504462087</v>
+        <v>839.4243482536216</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1772.421240554552</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>2750.97154338438</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.540472347267</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C28" t="n">
-        <v>707.5107908505465</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D28" t="n">
-        <v>557.3941514382108</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="X28" t="n">
-        <v>874.540472347267</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.540472347267</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3698.155230093471</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C31" t="n">
-        <v>3529.219047165564</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D31" t="n">
-        <v>3379.102407753228</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>3231.189314170835</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4556.285106989247</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4556.285106989247</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>4436.354530171979</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>4146.937360135018</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>3918.947809237001</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y31" t="n">
-        <v>3698.155230093471</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.4454116758762</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>805.5092287479694</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
         <v>192.8867116300491</v>
@@ -6891,19 +6891,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U34" t="n">
-        <v>1604.876006547663</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V34" t="n">
-        <v>1604.876006547663</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W34" t="n">
-        <v>1604.876006547663</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X34" t="n">
-        <v>1376.886455649646</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y34" t="n">
-        <v>1156.093876506116</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3888.072124968687</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4282.846491325865</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.6138567886371</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1810.912725333746</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1589.146109903272</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.146109903272</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.461621697385</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.044451660424</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7177,22 +7177,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7219,7 +7219,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>637.1336314069201</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>637.1336314069201</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D40" t="n">
-        <v>487.0169919945844</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E40" t="n">
-        <v>339.1038984121913</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1846.084263190025</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1556.981396315668</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.981396315668</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.564226278707</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.57467538069</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.7820962371599</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.67628410419</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.3871648742117</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C43" t="n">
-        <v>242.4509819463048</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="D43" t="n">
-        <v>242.4509819463048</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>540.7502584559452</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>393.8603109580348</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>226.1574743327538</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y43" t="n">
-        <v>593.0356297044514</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.9793597803102</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9793597803102</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D46" t="n">
-        <v>604.8627203679745</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8627203679745</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>457.9727728700641</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>290.269936244783</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>144.0527494626408</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7836,22 +7836,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689058</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.827124689058</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="V46" t="n">
-        <v>1674.827124689058</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="W46" t="n">
-        <v>1385.409954652097</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X46" t="n">
-        <v>1157.42040375408</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.62782461055</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>221.4955420540131</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>183.0065697095036</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>96.13798426930725</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>60.66917680434173</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,13 +9166,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>192.185308577135</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>29.61882225792237</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>216.9877583263338</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>189.7998007892644</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1012371454191</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>297.8289162490807</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.48143183721552</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>253.6897617452257</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.4229913812874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696654</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.0121421304418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>36.65239926958347</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.887436416874522</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>22.1495801554999</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.4063722747326</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>128.0280785755848</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>273.0942536208836</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>134.724744638241</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>199.324491060684</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>111.8169598386431</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.0409798470835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>48.34562254573417</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>149.6313092075779</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643245.6950980396</v>
+        <v>643245.6950980397</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296168</v>
+      </c>
+      <c r="F2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="H2" t="n">
         <v>774309.4844296171</v>
-      </c>
-      <c r="F2" t="n">
-        <v>774309.4844296171</v>
-      </c>
-      <c r="G2" t="n">
-        <v>774309.4844296172</v>
-      </c>
-      <c r="H2" t="n">
-        <v>774309.4844296173</v>
       </c>
       <c r="I2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="J2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="K2" t="n">
         <v>774309.4844296168</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774309.4844296169</v>
       </c>
       <c r="L2" t="n">
         <v>774309.4844296172</v>
       </c>
       <c r="M2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="N2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="O2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="P2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.684410647</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446929</v>
+        <v>91792.63957447001</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220085</v>
+        <v>21342.09858220102</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760457</v>
+        <v>235704.9591760459</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="M4" t="n">
         <v>28561.83935289575</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,16 +26481,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4842.024100417941</v>
+        <v>-4842.024100417475</v>
       </c>
       <c r="C6" t="n">
-        <v>415941.5925167643</v>
+        <v>415941.5925167635</v>
       </c>
       <c r="D6" t="n">
-        <v>507734.2320912335</v>
+        <v>507734.2320912337</v>
       </c>
       <c r="E6" t="n">
-        <v>-78013.28717039911</v>
+        <v>-78685.24207265706</v>
       </c>
       <c r="F6" t="n">
-        <v>649364.1268230077</v>
+        <v>648692.1719207499</v>
       </c>
       <c r="G6" t="n">
-        <v>649364.1268230078</v>
+        <v>648692.1719207501</v>
       </c>
       <c r="H6" t="n">
-        <v>649364.1268230078</v>
+        <v>648692.1719207498</v>
       </c>
       <c r="I6" t="n">
-        <v>649364.1268230077</v>
+        <v>648692.1719207498</v>
       </c>
       <c r="J6" t="n">
-        <v>494637.5911397915</v>
+        <v>493965.636237534</v>
       </c>
       <c r="K6" t="n">
-        <v>628022.0282408068</v>
+        <v>627350.0733385485</v>
       </c>
       <c r="L6" t="n">
-        <v>649364.1268230078</v>
+        <v>648692.1719207499</v>
       </c>
       <c r="M6" t="n">
-        <v>519721.8119840627</v>
+        <v>519049.857081805</v>
       </c>
       <c r="N6" t="n">
-        <v>649364.1268230075</v>
+        <v>648692.1719207499</v>
       </c>
       <c r="O6" t="n">
-        <v>649364.1268230075</v>
+        <v>648692.1719207499</v>
       </c>
       <c r="P6" t="n">
-        <v>649364.1268230076</v>
+        <v>648692.1719207498</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.359917843549</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353706</v>
+        <v>71.38374637353763</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330813</v>
+        <v>82.92444508330878</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330813</v>
+        <v>82.92444508330878</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712468</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330813</v>
+        <v>82.92444508330878</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>240.7031483366534</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>130.6739171699211</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.03583524739099</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24.10100742774493</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>80.27348839483705</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>156.0180965982967</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731848</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>133.612373051001</v>
+        <v>306.7938505770475</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>47.83987471325059</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.0077397360851</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>24.80941421243229</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2795463898914</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>14.658852728006</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>35.91382546819568</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672558</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452633</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589792</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940639</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978844</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380461</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540488</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014104</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.2575376440367</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247342</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302322</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382925</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.1160287633835</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163473</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654161</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967068</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818492</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509106</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448198</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.59941087502155</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361415</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395904</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230449</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.2603475943759</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400316</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.627737090263658</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084092</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32320,13 +32320,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302134</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249171</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222135</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777885</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0199144707891</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527158</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>197.1943485033516</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920821</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719798</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>836.7500320793075</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>286.9249852380198</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>311.4634816080612</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35886,13 +35886,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>529.3765951325355</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>568.5399380881491</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35901,13 +35901,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36126,19 +36126,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>672.577872718666</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>440.5941055929839</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>824.1542380336382</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>836.7500320793075</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3874267.143369413</v>
+        <v>3877672.634493861</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3972226855414</v>
+        <v>283.3972226855409</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517433</v>
+        <v>72.50477145174332</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>112.5835468933117</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810084</v>
+        <v>59.24433418100842</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>148.3652049806767</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>66.16047425173213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>99.36678583813449</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.13651949521427</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.13651949521424</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -992,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.70191565295202</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>156.4823443382506</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.66898836237942</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6509495310449</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534532</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292585</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881742</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>56.12687015635245</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>32.83323659136529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292588</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.9630737486289</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>264.3734181810911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>111.9187566128689</v>
+        <v>42.32069823344303</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.91797013962</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.38006817584762</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3796,13 +3796,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.93805507567765</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>70.57092427958136</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>76.3492485097301</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>69.9176400685913</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.5547518977935</v>
+        <v>744.554751897793</v>
       </c>
       <c r="C2" t="n">
-        <v>744.5547518977935</v>
+        <v>744.554751897793</v>
       </c>
       <c r="D2" t="n">
-        <v>744.5547518977935</v>
+        <v>744.554751897793</v>
       </c>
       <c r="E2" t="n">
-        <v>744.5547518977935</v>
+        <v>744.554751897793</v>
       </c>
       <c r="F2" t="n">
-        <v>333.5688471081859</v>
+        <v>333.5688471081855</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015908</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060707</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927189</v>
+        <v>769.5640925927186</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689012</v>
@@ -4345,7 +4345,7 @@
         <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633672</v>
+        <v>1978.679112633671</v>
       </c>
       <c r="P2" t="n">
         <v>2243.673398054131</v>
@@ -4354,16 +4354,16 @@
         <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804439</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804439</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="T2" t="n">
         <v>2072.310601330787</v>
       </c>
       <c r="U2" t="n">
-        <v>1818.52562648729</v>
+        <v>1818.525626487289</v>
       </c>
       <c r="V2" t="n">
         <v>1487.462739143719</v>
@@ -4375,7 +4375,7 @@
         <v>1134.694083873605</v>
       </c>
       <c r="Y2" t="n">
-        <v>744.5547518977935</v>
+        <v>744.554751897793</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992221</v>
+        <v>921.4743415614556</v>
       </c>
       <c r="C3" t="n">
-        <v>469.2016453180951</v>
+        <v>747.0213122803286</v>
       </c>
       <c r="D3" t="n">
-        <v>320.2672356568438</v>
+        <v>598.0869026190774</v>
       </c>
       <c r="E3" t="n">
-        <v>161.0297806513883</v>
+        <v>438.8494476136218</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0297806513883</v>
+        <v>292.3148896405067</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369975</v>
+        <v>154.2496832556011</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
         <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138126</v>
+        <v>338.9063907138125</v>
       </c>
       <c r="L3" t="n">
         <v>710.5174612568451</v>
@@ -4424,7 +4424,7 @@
         <v>1710.341330101582</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.5637351199</v>
+        <v>1905.563735119899</v>
       </c>
       <c r="P3" t="n">
         <v>2212.781883695908</v>
@@ -4436,25 +4436,25 @@
         <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.55478592678</v>
+        <v>2144.554785926779</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087511</v>
+        <v>1994.690942511955</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549721</v>
+        <v>1994.690942511955</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317978</v>
+        <v>1759.538834280212</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589777</v>
+        <v>1505.30147755201</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384244</v>
+        <v>1297.449977346477</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192902</v>
+        <v>1089.689678581524</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.1906104243789</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="C4" t="n">
-        <v>264.254427496472</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="D4" t="n">
-        <v>114.1377880841362</v>
+        <v>464.7224358422826</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369975</v>
+        <v>316.8093422598895</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369975</v>
+        <v>316.8093422598895</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369975</v>
+        <v>147.6795169592901</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369975</v>
+        <v>147.6795169592901</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369975</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181586</v>
+        <v>88.80529410181585</v>
       </c>
       <c r="L4" t="n">
         <v>197.432664936566</v>
@@ -4500,40 +4500,40 @@
         <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896739</v>
+        <v>449.7398382896737</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885926</v>
+        <v>551.3848716885924</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546186</v>
+        <v>614.8390752546184</v>
       </c>
     </row>
     <row r="5">
@@ -4552,13 +4552,13 @@
         <v>708.2137409138816</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>708.2137409138816</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>701.2682401646781</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>283.304432062865</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2667.180415904708</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2491.002928218878</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.863596243066</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
@@ -5032,7 +5032,7 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089256</v>
@@ -5041,19 +5041,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232731</v>
@@ -5068,25 +5068,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,13 +5159,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607301</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1899.649657865964</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1707.96377369279</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1486.197158262316</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1197.09429138796</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>942.4098031820731</v>
       </c>
       <c r="W13" t="n">
-        <v>876.1082687325173</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="X13" t="n">
-        <v>648.1187178345</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.3261386909699</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5296,34 +5296,34 @@
         <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4345.626553396685</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>975.9286436089831</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L17" t="n">
-        <v>1840.447459262338</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2373.979363934262</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993045</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5749,49 +5749,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L20" t="n">
-        <v>1772.421240554552</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M20" t="n">
-        <v>2750.97154338438</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,52 +5989,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>839.4243482536216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>670.4881653257147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6180,19 +6180,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1288.206478295169</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.216927397152</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.4243482536216</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.554715057174</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.510858308597</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1208.510858308597</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>987.7182791650667</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.8067350374723</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>506.8067350374723</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.8067350374723</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,52 +6700,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1764.65758193153</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,13 +6922,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,16 +6940,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,10 +6964,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
@@ -7180,13 +7180,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7210,7 +7210,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
         <v>3524.42128699119</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852383</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C40" t="n">
-        <v>102.0055477573314</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D40" t="n">
-        <v>102.0055477573314</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E40" t="n">
-        <v>102.0055477573314</v>
+        <v>173.65552377547</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0055477573314</v>
+        <v>173.65552377547</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154781</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="41">
@@ -7414,19 +7414,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2536.15366264131</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N41" t="n">
-        <v>3082.932479700092</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3585.904950579429</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7444,7 +7444,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.6864413838521</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C43" t="n">
-        <v>540.7502584559452</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D43" t="n">
-        <v>540.7502584559452</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>540.7502584559452</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>393.8603109580348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>226.1574743327538</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1693.373820032963</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1404.270953158607</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1149.58646495272</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>860.1692949157591</v>
       </c>
       <c r="X43" t="n">
-        <v>709.6864413838521</v>
+        <v>632.1797440177418</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.6864413838521</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7660,7 +7660,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>973.7726509601081</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C46" t="n">
-        <v>804.8364680322012</v>
+        <v>322.7981269008616</v>
       </c>
       <c r="D46" t="n">
-        <v>654.7198286198654</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1604.203245831895</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1604.203245831895</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1604.203245831895</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1604.203245831895</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>1376.213694933878</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>1155.421115790348</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>183.0065697095036</v>
+        <v>183.0065697095032</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8944,10 +8944,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>60.66917680434045</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.66917680434173</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>192.185308577135</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L20" t="n">
-        <v>216.9877583263338</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>198.7154374299952</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>133.253057640026</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>216.9877583263338</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32.80528251369488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.6897617452257</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>36.65239926958347</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>22.1495801554999</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.7908987761683</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>159.6457400831806</v>
+        <v>88.71226382522339</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8169598386431</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>148.9780249965878</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.40576640459068</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>149.6313092075779</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>643245.6950980396</v>
+        <v>643245.6950980397</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643245.6950980397</v>
+        <v>643245.6950980396</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>774309.4844296172</v>
       </c>
       <c r="G2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="H2" t="n">
         <v>774309.4844296173</v>
       </c>
-      <c r="H2" t="n">
-        <v>774309.4844296171</v>
-      </c>
       <c r="I2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="J2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="K2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="L2" t="n">
         <v>774309.4844296172</v>
       </c>
       <c r="M2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="N2" t="n">
         <v>774309.4844296172</v>
       </c>
       <c r="O2" t="n">
-        <v>774309.4844296172</v>
+        <v>774309.4844296173</v>
       </c>
       <c r="P2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296173</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410647</v>
+        <v>493391.6844106469</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447001</v>
+        <v>91792.6395744702</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220102</v>
+        <v>21342.09858220104</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760459</v>
+        <v>235704.959176046</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,16 +26426,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289583</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289574</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289576</v>
@@ -26447,7 +26447,7 @@
         <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
         <v>28561.83935289575</v>
@@ -26481,13 +26481,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4842.024100417475</v>
+        <v>-4842.024100417417</v>
       </c>
       <c r="C6" t="n">
-        <v>415941.5925167635</v>
+        <v>415941.5925167633</v>
       </c>
       <c r="D6" t="n">
         <v>507734.2320912337</v>
       </c>
       <c r="E6" t="n">
-        <v>-78685.24207265706</v>
+        <v>-78080.482660625</v>
       </c>
       <c r="F6" t="n">
-        <v>648692.1719207499</v>
+        <v>649296.931332782</v>
       </c>
       <c r="G6" t="n">
-        <v>648692.1719207501</v>
+        <v>649296.9313327819</v>
       </c>
       <c r="H6" t="n">
-        <v>648692.1719207498</v>
+        <v>649296.9313327821</v>
       </c>
       <c r="I6" t="n">
-        <v>648692.1719207498</v>
+        <v>649296.931332782</v>
       </c>
       <c r="J6" t="n">
-        <v>493965.636237534</v>
+        <v>494570.395649566</v>
       </c>
       <c r="K6" t="n">
-        <v>627350.0733385485</v>
+        <v>627954.8327505807</v>
       </c>
       <c r="L6" t="n">
-        <v>648692.1719207499</v>
+        <v>649296.931332782</v>
       </c>
       <c r="M6" t="n">
-        <v>519049.857081805</v>
+        <v>519654.6164938373</v>
       </c>
       <c r="N6" t="n">
-        <v>648692.1719207499</v>
+        <v>649296.931332782</v>
       </c>
       <c r="O6" t="n">
-        <v>648692.1719207499</v>
+        <v>649296.9313327821</v>
       </c>
       <c r="P6" t="n">
-        <v>648692.1719207498</v>
+        <v>649296.9313327821</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843549</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353763</v>
+        <v>71.3837463735378</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330878</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330878</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712468</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330878</v>
+        <v>82.92444508330887</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6739171699211</v>
+        <v>130.6739171699216</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836456</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.10100742774493</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>66.70865780356735</v>
@@ -27511,10 +27511,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>49.14344103019945</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>80.27348839483705</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>39.4699414132802</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848786</v>
+        <v>54.30080173848787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731848</v>
+        <v>39.90169565731851</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.7938505770475</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>248.7862532691429</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.0077397360851</v>
+        <v>171.0077397360849</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>250.3937014034608</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.80941421243229</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.658852728006</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.1778748630731e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31041,28 +31041,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672558</v>
+        <v>1.231597659672557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212159</v>
+        <v>12.61309953212158</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452633</v>
+        <v>47.48116877452632</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676339</v>
+        <v>104.5303118676338</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015733</v>
+        <v>156.6638408015732</v>
       </c>
       <c r="L2" t="n">
         <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589792</v>
+        <v>216.2577725589791</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095239</v>
+        <v>219.7570494095238</v>
       </c>
       <c r="O2" t="n">
         <v>207.5103501811548</v>
@@ -31074,16 +31074,16 @@
         <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940639</v>
+        <v>77.36434648940636</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978844</v>
+        <v>28.06503166978843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216624</v>
+        <v>5.391318755216623</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380461</v>
+        <v>0.09852781277380457</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540488</v>
+        <v>0.6589628421540485</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014104</v>
+        <v>6.364193765014101</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784774</v>
+        <v>22.68797504784773</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440367</v>
+        <v>62.25753764403667</v>
       </c>
       <c r="K3" t="n">
-        <v>106.408048068358</v>
+        <v>106.4080480683579</v>
       </c>
       <c r="L3" t="n">
-        <v>143.07875219665</v>
+        <v>143.0787521966499</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247342</v>
+        <v>166.9661552247341</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302322</v>
+        <v>171.3852525302321</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382925</v>
+        <v>156.7840232382924</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723815</v>
+        <v>125.8330009723814</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633835</v>
+        <v>84.11602876338347</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163473</v>
+        <v>40.91349997163471</v>
       </c>
       <c r="S3" t="n">
         <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945485</v>
+        <v>2.656082683945484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276638</v>
+        <v>0.04335281856276637</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654161</v>
+        <v>0.5524523108654159</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967068</v>
+        <v>4.911803272967066</v>
       </c>
       <c r="I4" t="n">
         <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818492</v>
+        <v>39.0583783781849</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509106</v>
+        <v>64.18491393509105</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448198</v>
+        <v>82.13459174448195</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502155</v>
+        <v>86.5994108750215</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361415</v>
+        <v>84.54027044361412</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395904</v>
+        <v>78.08662299395901</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230449</v>
+        <v>66.81659585230446</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.2603475943759</v>
+        <v>46.26034759437588</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400316</v>
+        <v>24.84026481400315</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263658</v>
+        <v>9.627737090263654</v>
       </c>
       <c r="T4" t="n">
         <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084092</v>
+        <v>0.0301337624108409</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302134</v>
+        <v>92.5810225130213</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277575</v>
+        <v>260.7194023277574</v>
       </c>
       <c r="L2" t="n">
         <v>376.2501472592405</v>
@@ -34710,13 +34710,13 @@
         <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249171</v>
+        <v>427.690910224917</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222135</v>
+        <v>358.2123200222134</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742017</v>
+        <v>267.6709953742016</v>
       </c>
       <c r="Q2" t="n">
         <v>123.0079925564202</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777885</v>
+        <v>61.51094631777882</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065776</v>
+        <v>233.0318461065775</v>
       </c>
       <c r="L3" t="n">
         <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527158</v>
+        <v>490.5371850527157</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904525</v>
+        <v>519.3859147904524</v>
       </c>
       <c r="O3" t="n">
-        <v>197.1943485033516</v>
+        <v>197.1943485033512</v>
       </c>
       <c r="P3" t="n">
         <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132111</v>
+        <v>154.211542413211</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920821</v>
+        <v>41.91542210920819</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047981</v>
@@ -34868,13 +34868,13 @@
         <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228428</v>
+        <v>128.6724428228427</v>
       </c>
       <c r="O4" t="n">
         <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719798</v>
+        <v>64.09515511719795</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35664,10 +35664,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>459.4311630237123</v>
       </c>
       <c r="Q14" t="n">
-        <v>311.4634816080612</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35886,10 +35886,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>529.3765951325355</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35901,7 +35901,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36123,10 +36123,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L20" t="n">
-        <v>672.577872718666</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36138,7 +36138,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3055518223274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>384.0473624437454</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7497445457057</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -38028,10 +38028,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
